--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdf1-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdf1-Bmpr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Gdf1</t>
+  </si>
+  <si>
+    <t>Bmpr1a</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Gdf1</t>
-  </si>
-  <si>
-    <t>Bmpr1a</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.040985</v>
+        <v>0.006993666666666666</v>
       </c>
       <c r="H2">
-        <v>0.122955</v>
+        <v>0.020981</v>
       </c>
       <c r="I2">
-        <v>0.739877123412142</v>
+        <v>0.4853567132414176</v>
       </c>
       <c r="J2">
-        <v>0.7398771234121421</v>
+        <v>0.4853567132414175</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.918858999999999</v>
+        <v>1.443038</v>
       </c>
       <c r="N2">
-        <v>29.756577</v>
+        <v>4.329114</v>
       </c>
       <c r="O2">
-        <v>0.160764128269069</v>
+        <v>0.0289666880885598</v>
       </c>
       <c r="P2">
-        <v>0.160764128269069</v>
+        <v>0.0289666880885598</v>
       </c>
       <c r="Q2">
-        <v>0.406524436115</v>
+        <v>0.01009212675933333</v>
       </c>
       <c r="R2">
-        <v>3.658719925035</v>
+        <v>0.090829140834</v>
       </c>
       <c r="S2">
-        <v>0.1189457007715794</v>
+        <v>0.01405917652415271</v>
       </c>
       <c r="T2">
-        <v>0.1189457007715794</v>
+        <v>0.0140591765241527</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.040985</v>
+        <v>0.006993666666666666</v>
       </c>
       <c r="H3">
-        <v>0.122955</v>
+        <v>0.020981</v>
       </c>
       <c r="I3">
-        <v>0.739877123412142</v>
+        <v>0.4853567132414176</v>
       </c>
       <c r="J3">
-        <v>0.7398771234121421</v>
+        <v>0.4853567132414175</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>29.20351433333333</v>
       </c>
       <c r="N3">
-        <v>87.61054299999999</v>
+        <v>87.61054300000001</v>
       </c>
       <c r="O3">
-        <v>0.47332838627826</v>
+        <v>0.5862140087672342</v>
       </c>
       <c r="P3">
-        <v>0.47332838627826</v>
+        <v>0.5862140087672342</v>
       </c>
       <c r="Q3">
-        <v>1.196906034951666</v>
+        <v>0.2042396447425555</v>
       </c>
       <c r="R3">
-        <v>10.772154314565</v>
+        <v>1.838156802683</v>
       </c>
       <c r="S3">
-        <v>0.3502048448688702</v>
+        <v>0.2845229045513403</v>
       </c>
       <c r="T3">
-        <v>0.3502048448688702</v>
+        <v>0.2845229045513403</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.040985</v>
+        <v>0.006993666666666666</v>
       </c>
       <c r="H4">
-        <v>0.122955</v>
+        <v>0.020981</v>
       </c>
       <c r="I4">
-        <v>0.739877123412142</v>
+        <v>0.4853567132414176</v>
       </c>
       <c r="J4">
-        <v>0.7398771234121421</v>
+        <v>0.4853567132414175</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.575837</v>
+        <v>19.170603</v>
       </c>
       <c r="N4">
-        <v>67.72751100000001</v>
+        <v>57.511809</v>
       </c>
       <c r="O4">
-        <v>0.365907485452671</v>
+        <v>0.384819303144206</v>
       </c>
       <c r="P4">
-        <v>0.365907485452671</v>
+        <v>0.384819303144206</v>
       </c>
       <c r="Q4">
-        <v>0.9252706794450002</v>
+        <v>0.134072807181</v>
       </c>
       <c r="R4">
-        <v>8.327436115005</v>
+        <v>1.206655264629</v>
       </c>
       <c r="S4">
-        <v>0.2707265777716924</v>
+        <v>0.1867746321659245</v>
       </c>
       <c r="T4">
-        <v>0.2707265777716925</v>
+        <v>0.1867746321659245</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -720,16 +720,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.006993666666666666</v>
+        <v>0.007415666666666667</v>
       </c>
       <c r="H5">
-        <v>0.020981</v>
+        <v>0.022247</v>
       </c>
       <c r="I5">
-        <v>0.1262523844195856</v>
+        <v>0.5146432867585824</v>
       </c>
       <c r="J5">
-        <v>0.1262523844195856</v>
+        <v>0.5146432867585824</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.918858999999999</v>
+        <v>1.443038</v>
       </c>
       <c r="N5">
-        <v>29.756577</v>
+        <v>4.329114</v>
       </c>
       <c r="O5">
-        <v>0.160764128269069</v>
+        <v>0.0289666880885598</v>
       </c>
       <c r="P5">
-        <v>0.160764128269069</v>
+        <v>0.0289666880885598</v>
       </c>
       <c r="Q5">
-        <v>0.06936919355966666</v>
+        <v>0.01070108879533333</v>
       </c>
       <c r="R5">
-        <v>0.624322742037</v>
+        <v>0.09630979915799999</v>
       </c>
       <c r="S5">
-        <v>0.02029685452310607</v>
+        <v>0.01490751156440709</v>
       </c>
       <c r="T5">
-        <v>0.02029685452310608</v>
+        <v>0.01490751156440709</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -782,16 +782,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.006993666666666666</v>
+        <v>0.007415666666666667</v>
       </c>
       <c r="H6">
-        <v>0.020981</v>
+        <v>0.022247</v>
       </c>
       <c r="I6">
-        <v>0.1262523844195856</v>
+        <v>0.5146432867585824</v>
       </c>
       <c r="J6">
-        <v>0.1262523844195856</v>
+        <v>0.5146432867585824</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>29.20351433333333</v>
       </c>
       <c r="N6">
-        <v>87.61054299999999</v>
+        <v>87.61054300000001</v>
       </c>
       <c r="O6">
-        <v>0.47332838627826</v>
+        <v>0.5862140087672342</v>
       </c>
       <c r="P6">
-        <v>0.47332838627826</v>
+        <v>0.5862140087672342</v>
       </c>
       <c r="Q6">
-        <v>0.2042396447425555</v>
+        <v>0.2165635277912222</v>
       </c>
       <c r="R6">
-        <v>1.838156802683</v>
+        <v>1.949071750121</v>
       </c>
       <c r="S6">
-        <v>0.05975883738110499</v>
+        <v>0.3016911042158938</v>
       </c>
       <c r="T6">
-        <v>0.05975883738110501</v>
+        <v>0.3016911042158938</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -844,16 +844,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.006993666666666666</v>
+        <v>0.007415666666666667</v>
       </c>
       <c r="H7">
-        <v>0.020981</v>
+        <v>0.022247</v>
       </c>
       <c r="I7">
-        <v>0.1262523844195856</v>
+        <v>0.5146432867585824</v>
       </c>
       <c r="J7">
-        <v>0.1262523844195856</v>
+        <v>0.5146432867585824</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.575837</v>
+        <v>19.170603</v>
       </c>
       <c r="N7">
-        <v>67.72751100000001</v>
+        <v>57.511809</v>
       </c>
       <c r="O7">
-        <v>0.365907485452671</v>
+        <v>0.384819303144206</v>
       </c>
       <c r="P7">
-        <v>0.365907485452671</v>
+        <v>0.384819303144206</v>
       </c>
       <c r="Q7">
-        <v>0.157887878699</v>
+        <v>0.142162801647</v>
       </c>
       <c r="R7">
-        <v>1.420990908291</v>
+        <v>1.279465214823</v>
       </c>
       <c r="S7">
-        <v>0.04619669251537455</v>
+        <v>0.1980446709782815</v>
       </c>
       <c r="T7">
-        <v>0.04619669251537456</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.007415666666666667</v>
-      </c>
-      <c r="H8">
-        <v>0.022247</v>
-      </c>
-      <c r="I8">
-        <v>0.1338704921682723</v>
-      </c>
-      <c r="J8">
-        <v>0.1338704921682723</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>9.918858999999999</v>
-      </c>
-      <c r="N8">
-        <v>29.756577</v>
-      </c>
-      <c r="O8">
-        <v>0.160764128269069</v>
-      </c>
-      <c r="P8">
-        <v>0.160764128269069</v>
-      </c>
-      <c r="Q8">
-        <v>0.07355495205766667</v>
-      </c>
-      <c r="R8">
-        <v>0.661994568519</v>
-      </c>
-      <c r="S8">
-        <v>0.02152157297438353</v>
-      </c>
-      <c r="T8">
-        <v>0.02152157297438353</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.007415666666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.022247</v>
-      </c>
-      <c r="I9">
-        <v>0.1338704921682723</v>
-      </c>
-      <c r="J9">
-        <v>0.1338704921682723</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>29.20351433333333</v>
-      </c>
-      <c r="N9">
-        <v>87.61054299999999</v>
-      </c>
-      <c r="O9">
-        <v>0.47332838627826</v>
-      </c>
-      <c r="P9">
-        <v>0.47332838627826</v>
-      </c>
-      <c r="Q9">
-        <v>0.2165635277912222</v>
-      </c>
-      <c r="R9">
-        <v>1.949071750121</v>
-      </c>
-      <c r="S9">
-        <v>0.06336470402828477</v>
-      </c>
-      <c r="T9">
-        <v>0.06336470402828479</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.007415666666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.022247</v>
-      </c>
-      <c r="I10">
-        <v>0.1338704921682723</v>
-      </c>
-      <c r="J10">
-        <v>0.1338704921682723</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>22.575837</v>
-      </c>
-      <c r="N10">
-        <v>67.72751100000001</v>
-      </c>
-      <c r="O10">
-        <v>0.365907485452671</v>
-      </c>
-      <c r="P10">
-        <v>0.365907485452671</v>
-      </c>
-      <c r="Q10">
-        <v>0.167414881913</v>
-      </c>
-      <c r="R10">
-        <v>1.506733937217</v>
-      </c>
-      <c r="S10">
-        <v>0.04898421516560401</v>
-      </c>
-      <c r="T10">
-        <v>0.04898421516560401</v>
+        <v>0.1980446709782814</v>
       </c>
     </row>
   </sheetData>
